--- a/Statistical analyses/Tukey posthoc/AP/Km, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/AP/Km, timePoint x Vegetation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\AP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB290024-8868-4E22-AF1A-0B3A4A7B9894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -453,22 +515,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>-0.427</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="D2">
         <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-1.7393</v>
+        <v>-1.7393000000000001</v>
       </c>
       <c r="F2">
-        <v>0.8852</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -479,7 +541,7 @@
         <v>1.1432</v>
       </c>
       <c r="D3">
-        <v>0.1311</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="E3">
         <v>-0.1691</v>
@@ -491,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -499,22 +561,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-0.6562</v>
+        <v>-0.65620000000000001</v>
       </c>
       <c r="D4">
-        <v>0.7372</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="E4">
-        <v>-1.9684</v>
+        <v>-1.9683999999999999</v>
       </c>
       <c r="F4">
-        <v>0.6561</v>
+        <v>0.65610000000000002</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -522,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-0.2758</v>
+        <v>-0.27579999999999999</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
-        <v>-1.588</v>
+        <v>-1.5880000000000001</v>
       </c>
       <c r="F5">
         <v>1.0365</v>
@@ -537,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -545,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>-0.3109</v>
+        <v>-0.31090000000000001</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -554,13 +616,13 @@
         <v>-1.6232</v>
       </c>
       <c r="F6">
-        <v>1.0013</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,22 +630,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.4066</v>
+        <v>-0.40660000000000002</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>-1.7189</v>
+        <v>-1.7189000000000001</v>
       </c>
       <c r="F7">
-        <v>0.9056</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -591,45 +653,45 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-0.8413</v>
+        <v>-0.84130000000000005</v>
       </c>
       <c r="D8">
-        <v>0.4804</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="E8">
-        <v>-2.1535</v>
+        <v>-2.1535000000000002</v>
       </c>
       <c r="F8">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1.5702</v>
       </c>
-      <c r="D9">
-        <v>0.0089</v>
-      </c>
-      <c r="E9">
-        <v>0.258</v>
-      </c>
-      <c r="F9">
-        <v>2.8825</v>
-      </c>
-      <c r="G9" t="b">
+      <c r="D9" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.8824999999999998</v>
+      </c>
+      <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.2292</v>
+        <v>-0.22919999999999999</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-1.5414</v>
+        <v>-1.5414000000000001</v>
       </c>
       <c r="F10">
         <v>1.0831</v>
@@ -652,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -660,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.1513</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -675,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -683,22 +745,22 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.1161</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="D12">
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>-1.1962</v>
+        <v>-1.1961999999999999</v>
       </c>
       <c r="F12">
-        <v>1.4284</v>
+        <v>1.4283999999999999</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -706,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0204</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="D13">
         <v>0.9</v>
@@ -721,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,137 +791,137 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.4142</v>
+        <v>-0.41420000000000001</v>
       </c>
       <c r="D14">
         <v>0.9</v>
       </c>
       <c r="E14">
-        <v>-1.7265</v>
+        <v>-1.7264999999999999</v>
       </c>
       <c r="F14">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>-1.7994</v>
-      </c>
-      <c r="D15">
-        <v>0.0016</v>
-      </c>
-      <c r="E15">
-        <v>-3.1116</v>
-      </c>
-      <c r="F15">
-        <v>-0.4871</v>
-      </c>
-      <c r="G15" t="b">
+      <c r="C15" s="2">
+        <v>-1.7994000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-3.1116000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.48709999999999998</v>
+      </c>
+      <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>-1.419</v>
       </c>
-      <c r="D16">
-        <v>0.0253</v>
-      </c>
-      <c r="E16">
-        <v>-2.7312</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-2.7311999999999999</v>
+      </c>
+      <c r="F16" s="2">
         <v>-0.1067</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>-1.4541</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>-1.4540999999999999</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.02</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>-2.7664</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>-0.1419</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>-1.5498</v>
-      </c>
-      <c r="D18">
-        <v>0.0103</v>
-      </c>
-      <c r="E18">
-        <v>-2.8621</v>
-      </c>
-      <c r="F18">
-        <v>-0.2376</v>
-      </c>
-      <c r="G18" t="b">
+      <c r="C18" s="2">
+        <v>-1.5498000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-2.8620999999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.23760000000000001</v>
+      </c>
+      <c r="G18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>-1.9845</v>
-      </c>
-      <c r="D19">
-        <v>0.001</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="2">
+        <v>-1.9844999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="2">
         <v>-3.2967</v>
       </c>
-      <c r="F19">
-        <v>-0.6722</v>
-      </c>
-      <c r="G19" t="b">
+      <c r="F19" s="2">
+        <v>-0.67220000000000002</v>
+      </c>
+      <c r="G19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -867,22 +929,22 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>0.3804</v>
+        <v>0.38040000000000002</v>
       </c>
       <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20">
-        <v>-0.9318</v>
+        <v>-0.93179999999999996</v>
       </c>
       <c r="F20">
-        <v>1.6927</v>
+        <v>1.6927000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -896,7 +958,7 @@
         <v>0.9</v>
       </c>
       <c r="E21">
-        <v>-0.9670000000000001</v>
+        <v>-0.96700000000000008</v>
       </c>
       <c r="F21">
         <v>1.6575</v>
@@ -905,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -922,13 +984,13 @@
         <v>-1.0627</v>
       </c>
       <c r="F22">
-        <v>1.5618</v>
+        <v>1.5618000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -936,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-0.1851</v>
+        <v>-0.18509999999999999</v>
       </c>
       <c r="D23">
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-1.4973</v>
+        <v>-1.4973000000000001</v>
       </c>
       <c r="F23">
         <v>1.1272</v>
@@ -951,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -959,22 +1021,22 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-0.0352</v>
+        <v>-3.5200000000000002E-2</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24">
-        <v>-1.3474</v>
+        <v>-1.3473999999999999</v>
       </c>
       <c r="F24">
-        <v>1.2771</v>
+        <v>1.2770999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>-0.1309</v>
+        <v>-0.13089999999999999</v>
       </c>
       <c r="D25">
         <v>0.9</v>
@@ -997,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1008,19 +1070,19 @@
         <v>-0.5655</v>
       </c>
       <c r="D26">
-        <v>0.8626</v>
+        <v>0.86260000000000003</v>
       </c>
       <c r="E26">
-        <v>-1.8778</v>
+        <v>-1.8777999999999999</v>
       </c>
       <c r="F26">
-        <v>0.7467</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1028,22 +1090,22 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>-0.09569999999999999</v>
+        <v>-9.5699999999999993E-2</v>
       </c>
       <c r="D27">
         <v>0.9</v>
       </c>
       <c r="E27">
-        <v>-1.408</v>
+        <v>-1.4079999999999999</v>
       </c>
       <c r="F27">
-        <v>1.2165</v>
+        <v>1.2164999999999999</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>-0.5303</v>
+        <v>-0.53029999999999999</v>
       </c>
       <c r="D28">
         <v>0.9</v>
@@ -1060,13 +1122,13 @@
         <v>-1.8426</v>
       </c>
       <c r="F28">
-        <v>0.7819</v>
+        <v>0.78190000000000004</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1074,16 +1136,16 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>-0.4346</v>
+        <v>-0.43459999999999999</v>
       </c>
       <c r="D29">
         <v>0.9</v>
       </c>
       <c r="E29">
-        <v>-1.7469</v>
+        <v>-1.7468999999999999</v>
       </c>
       <c r="F29">
-        <v>0.8776</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
